--- a/excel/LoginData.xlsx
+++ b/excel/LoginData.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Email</t>
+    <t>Emails</t>
   </si>
   <si>
     <t>Password</t>
@@ -44,11 +44,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,47 +297,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>7.6697669E7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>7.6697669E7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>7.6697669E7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>7.6697669E7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>7.6697669E7</v>
       </c>
     </row>
